--- a/Crawling/music/crawled_data/live_vibe/live_vibe_20220508_110605.xlsx
+++ b/Crawling/music/crawled_data/live_vibe/live_vibe_20220508_110605.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-05-08</t>
@@ -1668,7 +1668,6 @@
         <v>131</v>
       </c>
       <c r="F32">
-        <f/>
         <v>0</v>
       </c>
     </row>
@@ -2629,7 +2628,6 @@
         <v>131</v>
       </c>
       <c r="F80">
-        <f/>
         <v>0</v>
       </c>
     </row>
